--- a/biology/Zoologie/Aeshna/Aeshna.xlsx
+++ b/biology/Zoologie/Aeshna/Aeshna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aeschna, Libellula (Aeschna) · æschne
 Aeshna (dont le nom vernaculaire français est æschne) est un genre de libellules de la famille des Aeshnidae appartenant au sous-ordre des anisoptères dans l'ordre des odonates. Il comprend 33 espèces vivantes et 24 espèces fossiles.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'entomologiste Danois Johan Christian Fabricius du XVIIIe siècle est à l'origine du nom Aeshna. Ce nom pourrait être le résultat d'une erreur d'orthographe du grec ancien : Aechma qui signifie « lance »[1]. Dans le passé, l'orthographe Aeschna a été utilisée par intermittence mais aujourd'hui, on s'accorde sur le nom originel d'Aeshna, les noms dérivés, comme Rhionaeschna, conservant l'orthographe «sch».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entomologiste Danois Johan Christian Fabricius du XVIIIe siècle est à l'origine du nom Aeshna. Ce nom pourrait être le résultat d'une erreur d'orthographe du grec ancien : Aechma qui signifie « lance ». Dans le passé, l'orthographe Aeschna a été utilisée par intermittence mais aujourd'hui, on s'accorde sur le nom originel d'Aeshna, les noms dérivés, comme Rhionaeschna, conservant l'orthographe «sch».
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Aeshna sont de grandes libellules d'une envergure de 8 à 11 cm. Elles ont l'abdomen et le thorax brun ou gris-brun et possèdent des striations bleues, vertes, jaunes ou encore une dégradation de ces trois couleurs. Une variation de ces tons peut subvenir chez les individus d'une même espèce. Ils ont également une tache en forme de « T » sur le haut de la face, à la rencontre des yeux. Toutes les Aeshna ont deux bandes sur chaque côté du thorax et deux autres bandes sur le dessus de celui-ci, entre la tête et les muscles d'attachement des ailes. Deux rangées de points traversent verticalement l'entièreté de l'abdomen. Ces motifs sont à l'origine du nom anglais Mosaic Darner[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Aeshna sont de grandes libellules d'une envergure de 8 à 11 cm. Elles ont l'abdomen et le thorax brun ou gris-brun et possèdent des striations bleues, vertes, jaunes ou encore une dégradation de ces trois couleurs. Une variation de ces tons peut subvenir chez les individus d'une même espèce. Ils ont également une tache en forme de « T » sur le haut de la face, à la rencontre des yeux. Toutes les Aeshna ont deux bandes sur chaque côté du thorax et deux autres bandes sur le dessus de celui-ci, entre la tête et les muscles d'attachement des ailes. Deux rangées de points traversent verticalement l'entièreté de l'abdomen. Ces motifs sont à l'origine du nom anglais Mosaic Darner.
 			Corps d'Aeshna
 			Bandes thoraciques
 			Tache en forme de «T»
@@ -577,11 +593,13 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles possèdent des appendices abdominaux (cerques) qui sont utilisés pour retenir la femelle lors de l'accouplement. On retrouve deux types d'appendices : les cerques relativement étroits et recourbés (de l'anglais : Paddle-type) et les cerques plus élargis, se terminant par deux dents (de l'anglais : Wedge-type)[2].
-Chez les odonates, les mâles et femelles présentent des colorations distinctes. Étant des insectes très visuels, les libellules reconnaissent le dimorphisme sexuel, les différences dans le vol et tout autre variation au niveau comportemental[3].
-Lors de la période de reproduction, les mâles se retrouvent en grand nombre près des sites de ponte. Ils sont territoriaux et pourchassent farouchement les intrus. Les femelles se tiennent à proximité, dans des refuges qui les protègent du harcèlement des mâles. Lorsqu'une femelle est prête à se faire accoupler, elle quitte cet endroit et vole vers un lieu de reproduction. Au site, elle se fera saisir par l'un d'eux ou encore par un groupe de mâles. Après l'accouplement, la femelle ira pondre ses œufs dans l'eau ou encore à l'intérieur des tiges ou des feuilles de plantes aquatiques à l'aide de son ovipositeur adapté[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles possèdent des appendices abdominaux (cerques) qui sont utilisés pour retenir la femelle lors de l'accouplement. On retrouve deux types d'appendices : les cerques relativement étroits et recourbés (de l'anglais : Paddle-type) et les cerques plus élargis, se terminant par deux dents (de l'anglais : Wedge-type).
+Chez les odonates, les mâles et femelles présentent des colorations distinctes. Étant des insectes très visuels, les libellules reconnaissent le dimorphisme sexuel, les différences dans le vol et tout autre variation au niveau comportemental.
+Lors de la période de reproduction, les mâles se retrouvent en grand nombre près des sites de ponte. Ils sont territoriaux et pourchassent farouchement les intrus. Les femelles se tiennent à proximité, dans des refuges qui les protègent du harcèlement des mâles. Lorsqu'une femelle est prête à se faire accoupler, elle quitte cet endroit et vole vers un lieu de reproduction. Au site, elle se fera saisir par l'un d'eux ou encore par un groupe de mâles. Après l'accouplement, la femelle ira pondre ses œufs dans l'eau ou encore à l'intérieur des tiges ou des feuilles de plantes aquatiques à l'aide de son ovipositeur adapté.
 			Ponte d' Aeshna mixta
 			Ponte d'Aeshna grandis
 			Ponte d' Aeshna crenata
@@ -613,9 +631,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre comprend les 32 espèces suivantes[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre comprend les 32 espèces suivantes :
 Aeshna affinis Van der Linden, 1820
 Aeshna athalia Needham, 1930
 Aeshna baicalensis Belyshev, 1964
@@ -648,15 +668,130 @@
 Aeshna viridis Eversmann, 1836
 Aeshna walkeri Kennedy, 1917
 Aeshna williamsoniana Calvert, 1905
-ainsi que Aeshna isosceles Müller 1767[6] 
-Espèces fossiles
-Les espèces fossiles selon Fossilworks s'établissent à[5] :
-Aeschna
+ainsi que Aeshna isosceles Müller 1767 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aeshna</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aeshna</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces fossiles selon Fossilworks s'établissent à :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aeshna</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aeshna</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Aeschna</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 †Aeschna acrodonta Chang and Sun 2005
 †Aeschna dido Hagen 1863
-†Aeschna ollivieri Nel 1986[5]
-†Aeschna vosendorfensis Papp and Mandl 11951[5]
-Aeshna
+†Aeschna ollivieri Nel 1986
+†Aeschna vosendorfensis Papp and Mandl 11951
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aeshna</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aeshna</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Aeshna</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 †Aeshna andancensi Nel and Brisac 1994
 †Aeshna cerdanica Nel and Martínez-Delclòs 1994
 †Aeshna forficatum Li et al. 2011
@@ -676,7 +811,7 @@
 †Aeshna turoliana Riou and Nel 1995
 †Aeshna tyche Heer 1849
 †Aeshna voesendorfensis Papp and Mandl 1951
-†Aeshna zlatkokvaceki Prokop et al. 2016[5]
+†Aeshna zlatkokvaceki Prokop et al. 2016
 </t>
         </is>
       </c>
